--- a/data/ParteI/s(1).xlsx
+++ b/data/ParteI/s(1).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\code_tesis\data\ParteI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\code_tesis\data\ParteI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD526DB-EC2F-494C-BD45-A1F32DEDD2A5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1188" yWindow="-108" windowWidth="21960" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2115" yWindow="-105" windowWidth="21960" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -75,19 +74,19 @@
     <t>-3.0</t>
   </si>
   <si>
-    <t>Vas1</t>
-  </si>
-  <si>
-    <t>Vas2</t>
-  </si>
-  <si>
-    <t>Vas3</t>
+    <t>ForearmBrush</t>
+  </si>
+  <si>
+    <t>ForearmTactor</t>
+  </si>
+  <si>
+    <t>BackBrush</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -415,33 +414,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="9" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>3</v>
       </c>
@@ -455,7 +455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -469,7 +469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -483,7 +483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -497,7 +497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -511,7 +511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>10</v>
       </c>
@@ -525,7 +525,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>10</v>
       </c>
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>10</v>
       </c>
@@ -553,7 +553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -567,7 +567,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -581,7 +581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>30</v>
       </c>
@@ -595,7 +595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>30</v>
       </c>
@@ -609,7 +609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>30</v>
       </c>
@@ -623,7 +623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>30</v>
       </c>
@@ -637,7 +637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>30</v>
       </c>
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>50</v>
       </c>
@@ -665,7 +665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>50</v>
       </c>
@@ -679,7 +679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>50</v>
       </c>
@@ -693,7 +693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>50</v>
       </c>
@@ -707,7 +707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>50</v>
       </c>
@@ -721,7 +721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>100</v>
       </c>
@@ -735,7 +735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>100</v>
       </c>
@@ -749,7 +749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>100</v>
       </c>
@@ -763,7 +763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>100</v>
       </c>
@@ -777,7 +777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>100</v>
       </c>
@@ -791,7 +791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>200</v>
       </c>
@@ -805,7 +805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>200</v>
       </c>
@@ -819,7 +819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>200</v>
       </c>
@@ -833,7 +833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>200</v>
       </c>
@@ -847,7 +847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>200</v>
       </c>
@@ -861,7 +861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>
